--- a/stock/data/카카오페이.xlsx
+++ b/stock/data/카카오페이.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G595"/>
+  <dimension ref="A1:G628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14130,10 +14130,769 @@
         <v>38500</v>
       </c>
       <c r="F595" t="n">
-        <v>177289</v>
+        <v>178669</v>
       </c>
       <c r="G595" t="n">
         <v>-1.02827763496144</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B596" t="n">
+        <v>38700</v>
+      </c>
+      <c r="C596" t="n">
+        <v>39350</v>
+      </c>
+      <c r="D596" t="n">
+        <v>38650</v>
+      </c>
+      <c r="E596" t="n">
+        <v>39100</v>
+      </c>
+      <c r="F596" t="n">
+        <v>139740</v>
+      </c>
+      <c r="G596" t="n">
+        <v>1.558441558441559</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>45384</v>
+      </c>
+      <c r="B597" t="n">
+        <v>38600</v>
+      </c>
+      <c r="C597" t="n">
+        <v>38900</v>
+      </c>
+      <c r="D597" t="n">
+        <v>37850</v>
+      </c>
+      <c r="E597" t="n">
+        <v>38050</v>
+      </c>
+      <c r="F597" t="n">
+        <v>257850</v>
+      </c>
+      <c r="G597" t="n">
+        <v>-2.685421994884911</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>45385</v>
+      </c>
+      <c r="B598" t="n">
+        <v>38100</v>
+      </c>
+      <c r="C598" t="n">
+        <v>38100</v>
+      </c>
+      <c r="D598" t="n">
+        <v>37550</v>
+      </c>
+      <c r="E598" t="n">
+        <v>37650</v>
+      </c>
+      <c r="F598" t="n">
+        <v>153632</v>
+      </c>
+      <c r="G598" t="n">
+        <v>-1.051248357424442</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>45386</v>
+      </c>
+      <c r="B599" t="n">
+        <v>37900</v>
+      </c>
+      <c r="C599" t="n">
+        <v>38150</v>
+      </c>
+      <c r="D599" t="n">
+        <v>37200</v>
+      </c>
+      <c r="E599" t="n">
+        <v>37250</v>
+      </c>
+      <c r="F599" t="n">
+        <v>136195</v>
+      </c>
+      <c r="G599" t="n">
+        <v>-1.062416998671979</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>45387</v>
+      </c>
+      <c r="B600" t="n">
+        <v>36850</v>
+      </c>
+      <c r="C600" t="n">
+        <v>37350</v>
+      </c>
+      <c r="D600" t="n">
+        <v>36700</v>
+      </c>
+      <c r="E600" t="n">
+        <v>36700</v>
+      </c>
+      <c r="F600" t="n">
+        <v>181144</v>
+      </c>
+      <c r="G600" t="n">
+        <v>-1.476510067114094</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B601" t="n">
+        <v>36550</v>
+      </c>
+      <c r="C601" t="n">
+        <v>37250</v>
+      </c>
+      <c r="D601" t="n">
+        <v>35900</v>
+      </c>
+      <c r="E601" t="n">
+        <v>36900</v>
+      </c>
+      <c r="F601" t="n">
+        <v>218220</v>
+      </c>
+      <c r="G601" t="n">
+        <v>0.544959128065395</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>45391</v>
+      </c>
+      <c r="B602" t="n">
+        <v>37250</v>
+      </c>
+      <c r="C602" t="n">
+        <v>38200</v>
+      </c>
+      <c r="D602" t="n">
+        <v>36850</v>
+      </c>
+      <c r="E602" t="n">
+        <v>36950</v>
+      </c>
+      <c r="F602" t="n">
+        <v>205501</v>
+      </c>
+      <c r="G602" t="n">
+        <v>0.1355013550135501</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>45393</v>
+      </c>
+      <c r="B603" t="n">
+        <v>36400</v>
+      </c>
+      <c r="C603" t="n">
+        <v>36800</v>
+      </c>
+      <c r="D603" t="n">
+        <v>35500</v>
+      </c>
+      <c r="E603" t="n">
+        <v>35500</v>
+      </c>
+      <c r="F603" t="n">
+        <v>354945</v>
+      </c>
+      <c r="G603" t="n">
+        <v>-3.924221921515562</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>45394</v>
+      </c>
+      <c r="B604" t="n">
+        <v>35500</v>
+      </c>
+      <c r="C604" t="n">
+        <v>35600</v>
+      </c>
+      <c r="D604" t="n">
+        <v>34800</v>
+      </c>
+      <c r="E604" t="n">
+        <v>34800</v>
+      </c>
+      <c r="F604" t="n">
+        <v>268886</v>
+      </c>
+      <c r="G604" t="n">
+        <v>-1.971830985915493</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B605" t="n">
+        <v>34000</v>
+      </c>
+      <c r="C605" t="n">
+        <v>34550</v>
+      </c>
+      <c r="D605" t="n">
+        <v>33600</v>
+      </c>
+      <c r="E605" t="n">
+        <v>34200</v>
+      </c>
+      <c r="F605" t="n">
+        <v>217416</v>
+      </c>
+      <c r="G605" t="n">
+        <v>-1.724137931034483</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>45398</v>
+      </c>
+      <c r="B606" t="n">
+        <v>33900</v>
+      </c>
+      <c r="C606" t="n">
+        <v>34200</v>
+      </c>
+      <c r="D606" t="n">
+        <v>33150</v>
+      </c>
+      <c r="E606" t="n">
+        <v>33250</v>
+      </c>
+      <c r="F606" t="n">
+        <v>235103</v>
+      </c>
+      <c r="G606" t="n">
+        <v>-2.777777777777778</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>45399</v>
+      </c>
+      <c r="B607" t="n">
+        <v>33500</v>
+      </c>
+      <c r="C607" t="n">
+        <v>33800</v>
+      </c>
+      <c r="D607" t="n">
+        <v>32600</v>
+      </c>
+      <c r="E607" t="n">
+        <v>32700</v>
+      </c>
+      <c r="F607" t="n">
+        <v>200624</v>
+      </c>
+      <c r="G607" t="n">
+        <v>-1.654135338345865</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>45400</v>
+      </c>
+      <c r="B608" t="n">
+        <v>32700</v>
+      </c>
+      <c r="C608" t="n">
+        <v>33850</v>
+      </c>
+      <c r="D608" t="n">
+        <v>32700</v>
+      </c>
+      <c r="E608" t="n">
+        <v>33750</v>
+      </c>
+      <c r="F608" t="n">
+        <v>284212</v>
+      </c>
+      <c r="G608" t="n">
+        <v>3.211009174311927</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>45401</v>
+      </c>
+      <c r="B609" t="n">
+        <v>33200</v>
+      </c>
+      <c r="C609" t="n">
+        <v>33450</v>
+      </c>
+      <c r="D609" t="n">
+        <v>32450</v>
+      </c>
+      <c r="E609" t="n">
+        <v>33200</v>
+      </c>
+      <c r="F609" t="n">
+        <v>276026</v>
+      </c>
+      <c r="G609" t="n">
+        <v>-1.62962962962963</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B610" t="n">
+        <v>33900</v>
+      </c>
+      <c r="C610" t="n">
+        <v>34050</v>
+      </c>
+      <c r="D610" t="n">
+        <v>33300</v>
+      </c>
+      <c r="E610" t="n">
+        <v>33850</v>
+      </c>
+      <c r="F610" t="n">
+        <v>191948</v>
+      </c>
+      <c r="G610" t="n">
+        <v>1.957831325301205</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>45405</v>
+      </c>
+      <c r="B611" t="n">
+        <v>33700</v>
+      </c>
+      <c r="C611" t="n">
+        <v>34650</v>
+      </c>
+      <c r="D611" t="n">
+        <v>33650</v>
+      </c>
+      <c r="E611" t="n">
+        <v>33850</v>
+      </c>
+      <c r="F611" t="n">
+        <v>168485</v>
+      </c>
+      <c r="G611" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>45406</v>
+      </c>
+      <c r="B612" t="n">
+        <v>34150</v>
+      </c>
+      <c r="C612" t="n">
+        <v>34500</v>
+      </c>
+      <c r="D612" t="n">
+        <v>33950</v>
+      </c>
+      <c r="E612" t="n">
+        <v>34100</v>
+      </c>
+      <c r="F612" t="n">
+        <v>125914</v>
+      </c>
+      <c r="G612" t="n">
+        <v>0.7385524372230428</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>45407</v>
+      </c>
+      <c r="B613" t="n">
+        <v>33800</v>
+      </c>
+      <c r="C613" t="n">
+        <v>33800</v>
+      </c>
+      <c r="D613" t="n">
+        <v>33150</v>
+      </c>
+      <c r="E613" t="n">
+        <v>33450</v>
+      </c>
+      <c r="F613" t="n">
+        <v>206055</v>
+      </c>
+      <c r="G613" t="n">
+        <v>-1.906158357771261</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>45408</v>
+      </c>
+      <c r="B614" t="n">
+        <v>33800</v>
+      </c>
+      <c r="C614" t="n">
+        <v>33900</v>
+      </c>
+      <c r="D614" t="n">
+        <v>33400</v>
+      </c>
+      <c r="E614" t="n">
+        <v>33750</v>
+      </c>
+      <c r="F614" t="n">
+        <v>135360</v>
+      </c>
+      <c r="G614" t="n">
+        <v>0.8968609865470852</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B615" t="n">
+        <v>34050</v>
+      </c>
+      <c r="C615" t="n">
+        <v>35300</v>
+      </c>
+      <c r="D615" t="n">
+        <v>33850</v>
+      </c>
+      <c r="E615" t="n">
+        <v>35100</v>
+      </c>
+      <c r="F615" t="n">
+        <v>223784</v>
+      </c>
+      <c r="G615" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>45412</v>
+      </c>
+      <c r="B616" t="n">
+        <v>34950</v>
+      </c>
+      <c r="C616" t="n">
+        <v>35500</v>
+      </c>
+      <c r="D616" t="n">
+        <v>34850</v>
+      </c>
+      <c r="E616" t="n">
+        <v>35300</v>
+      </c>
+      <c r="F616" t="n">
+        <v>144578</v>
+      </c>
+      <c r="G616" t="n">
+        <v>0.5698005698005698</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>45414</v>
+      </c>
+      <c r="B617" t="n">
+        <v>34950</v>
+      </c>
+      <c r="C617" t="n">
+        <v>35400</v>
+      </c>
+      <c r="D617" t="n">
+        <v>34550</v>
+      </c>
+      <c r="E617" t="n">
+        <v>34950</v>
+      </c>
+      <c r="F617" t="n">
+        <v>110713</v>
+      </c>
+      <c r="G617" t="n">
+        <v>-0.9915014164305949</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>45415</v>
+      </c>
+      <c r="B618" t="n">
+        <v>35200</v>
+      </c>
+      <c r="C618" t="n">
+        <v>36100</v>
+      </c>
+      <c r="D618" t="n">
+        <v>35200</v>
+      </c>
+      <c r="E618" t="n">
+        <v>35800</v>
+      </c>
+      <c r="F618" t="n">
+        <v>249039</v>
+      </c>
+      <c r="G618" t="n">
+        <v>2.432045779685265</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>45419</v>
+      </c>
+      <c r="B619" t="n">
+        <v>36250</v>
+      </c>
+      <c r="C619" t="n">
+        <v>37150</v>
+      </c>
+      <c r="D619" t="n">
+        <v>34800</v>
+      </c>
+      <c r="E619" t="n">
+        <v>35900</v>
+      </c>
+      <c r="F619" t="n">
+        <v>509017</v>
+      </c>
+      <c r="G619" t="n">
+        <v>0.2793296089385475</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>45420</v>
+      </c>
+      <c r="B620" t="n">
+        <v>36000</v>
+      </c>
+      <c r="C620" t="n">
+        <v>37400</v>
+      </c>
+      <c r="D620" t="n">
+        <v>35850</v>
+      </c>
+      <c r="E620" t="n">
+        <v>35950</v>
+      </c>
+      <c r="F620" t="n">
+        <v>331379</v>
+      </c>
+      <c r="G620" t="n">
+        <v>0.1392757660167131</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>45421</v>
+      </c>
+      <c r="B621" t="n">
+        <v>35950</v>
+      </c>
+      <c r="C621" t="n">
+        <v>36400</v>
+      </c>
+      <c r="D621" t="n">
+        <v>35650</v>
+      </c>
+      <c r="E621" t="n">
+        <v>35800</v>
+      </c>
+      <c r="F621" t="n">
+        <v>562836</v>
+      </c>
+      <c r="G621" t="n">
+        <v>-0.4172461752433936</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>45422</v>
+      </c>
+      <c r="B622" t="n">
+        <v>36150</v>
+      </c>
+      <c r="C622" t="n">
+        <v>36600</v>
+      </c>
+      <c r="D622" t="n">
+        <v>35400</v>
+      </c>
+      <c r="E622" t="n">
+        <v>35850</v>
+      </c>
+      <c r="F622" t="n">
+        <v>157343</v>
+      </c>
+      <c r="G622" t="n">
+        <v>0.1396648044692737</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B623" t="n">
+        <v>36150</v>
+      </c>
+      <c r="C623" t="n">
+        <v>36150</v>
+      </c>
+      <c r="D623" t="n">
+        <v>35350</v>
+      </c>
+      <c r="E623" t="n">
+        <v>35600</v>
+      </c>
+      <c r="F623" t="n">
+        <v>108039</v>
+      </c>
+      <c r="G623" t="n">
+        <v>-0.697350069735007</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>45426</v>
+      </c>
+      <c r="B624" t="n">
+        <v>35600</v>
+      </c>
+      <c r="C624" t="n">
+        <v>35950</v>
+      </c>
+      <c r="D624" t="n">
+        <v>35400</v>
+      </c>
+      <c r="E624" t="n">
+        <v>35650</v>
+      </c>
+      <c r="F624" t="n">
+        <v>76695</v>
+      </c>
+      <c r="G624" t="n">
+        <v>0.1404494382022472</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>45428</v>
+      </c>
+      <c r="B625" t="n">
+        <v>36450</v>
+      </c>
+      <c r="C625" t="n">
+        <v>36450</v>
+      </c>
+      <c r="D625" t="n">
+        <v>34450</v>
+      </c>
+      <c r="E625" t="n">
+        <v>35000</v>
+      </c>
+      <c r="F625" t="n">
+        <v>341057</v>
+      </c>
+      <c r="G625" t="n">
+        <v>-1.82328190743338</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>45429</v>
+      </c>
+      <c r="B626" t="n">
+        <v>34550</v>
+      </c>
+      <c r="C626" t="n">
+        <v>35000</v>
+      </c>
+      <c r="D626" t="n">
+        <v>34400</v>
+      </c>
+      <c r="E626" t="n">
+        <v>34450</v>
+      </c>
+      <c r="F626" t="n">
+        <v>151655</v>
+      </c>
+      <c r="G626" t="n">
+        <v>-1.571428571428572</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B627" t="n">
+        <v>34000</v>
+      </c>
+      <c r="C627" t="n">
+        <v>34300</v>
+      </c>
+      <c r="D627" t="n">
+        <v>33350</v>
+      </c>
+      <c r="E627" t="n">
+        <v>33650</v>
+      </c>
+      <c r="F627" t="n">
+        <v>351129</v>
+      </c>
+      <c r="G627" t="n">
+        <v>-2.322206095791001</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>45433</v>
+      </c>
+      <c r="B628" t="n">
+        <v>33200</v>
+      </c>
+      <c r="C628" t="n">
+        <v>33850</v>
+      </c>
+      <c r="D628" t="n">
+        <v>33200</v>
+      </c>
+      <c r="E628" t="n">
+        <v>33750</v>
+      </c>
+      <c r="F628" t="n">
+        <v>135303</v>
+      </c>
+      <c r="G628" t="n">
+        <v>0.2971768202080238</v>
       </c>
     </row>
   </sheetData>
